--- a/biology/Zoologie/Geai_de_Steller/Geai_de_Steller.xlsx
+++ b/biology/Zoologie/Geai_de_Steller/Geai_de_Steller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanocitta stelleri
 Le Geai de Steller (Cyanocitta stelleri) est une espèce d'oiseaux de la famille des Corvidae, l'une des deux espèces de geais bleus.
-Cet oiseau qui vit dans l'ouest de l'Amérique du Nord et dans l'Amérique centrale[1], a été choisi comme emblème aviaire par la province canadienne de Colombie-Britannique. Son nom lui a été attribué en hommage au naturaliste allemand Georg Wilhelm Steller (1709-1746), premier occidental à l'avoir décrit en 1741 sur l'île de Kayak dans le cadre de l'expédition menée par Vitus Bering[2].
+Cet oiseau qui vit dans l'ouest de l'Amérique du Nord et dans l'Amérique centrale, a été choisi comme emblème aviaire par la province canadienne de Colombie-Britannique. Son nom lui a été attribué en hommage au naturaliste allemand Georg Wilhelm Steller (1709-1746), premier occidental à l'avoir décrit en 1741 sur l'île de Kayak dans le cadre de l'expédition menée par Vitus Bering.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Longueur : 30 à 34 cm
 Envergure : 43 cm
@@ -546,7 +560,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 14 sous-espèces :
 Cyanocitta stelleri annectens (S.F. Baird, 1874)
